--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_2_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
   <si>
     <t>CIN5</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -113,9 +110,6 @@
     <t>production_rate</t>
   </si>
   <si>
-    <t>Model</t>
-  </si>
-  <si>
     <t>Sigmoid</t>
   </si>
   <si>
@@ -150,6 +144,12 @@
   </si>
   <si>
     <t>dcin5 SSE</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -652,10 +652,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -809,7 +809,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1164,7 +1164,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1264,7 +1264,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1364,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1464,15 +1464,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>8.4331101619379697E-4</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>0.33424655929613983</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
@@ -1496,7 +1496,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5">
         <v>261</v>
@@ -1504,18 +1504,18 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
         <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1584,10 +1584,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1710,7 +1710,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="10">
         <v>0.4</v>
@@ -1954,7 +1954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
@@ -1962,7 +1962,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="9">
         <v>0.4</v>
@@ -2251,7 +2251,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2373,7 +2373,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2485,8 +2485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2494,27 +2494,15 @@
     <col min="1" max="1" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2522,7 +2510,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2530,7 +2518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2538,7 +2526,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2546,7 +2534,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2554,7 +2542,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2562,99 +2550,96 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>27</v>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B14" s="8">
+        <v>0.4</v>
+      </c>
+      <c r="C14">
+        <v>0.8</v>
+      </c>
+      <c r="D14">
+        <v>1.2</v>
+      </c>
+      <c r="E14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="C13">
-        <v>0.8</v>
-      </c>
-      <c r="D13">
-        <v>1.2</v>
-      </c>
-      <c r="E13">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="B16" s="7">
         <v>3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2740,10 +2725,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2802,7 +2787,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1">
         <v>0</v>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_2_output.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="6"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="39">
   <si>
     <t>CIN5</t>
   </si>
@@ -78,9 +83,6 @@
   </si>
   <si>
     <t>fix_b</t>
-  </si>
-  <si>
-    <t>Sheet</t>
   </si>
   <si>
     <t>dcin5</t>
@@ -155,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -208,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -216,7 +218,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
@@ -236,7 +237,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -311,6 +312,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -637,31 +641,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -670,7 +674,7 @@
       </c>
       <c r="G2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -679,7 +683,7 @@
       </c>
       <c r="G3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -689,7 +693,7 @@
       <c r="D4" s="5"/>
       <c r="G4"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -699,94 +703,94 @@
       <c r="D5" s="5"/>
       <c r="G5"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
       <c r="G6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
       <c r="G7"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
       <c r="G8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
       <c r="G9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
       <c r="G10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
       <c r="G11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
       <c r="G12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
       <c r="D13" s="5"/>
       <c r="G13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
       <c r="G14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
       <c r="G15"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
       <c r="G17"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
       <c r="G18"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19" s="4"/>
       <c r="D19" s="5"/>
       <c r="G19"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20" s="4"/>
       <c r="G20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
       <c r="G21"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
       <c r="G22"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D24" s="5"/>
     </row>
   </sheetData>
@@ -798,18 +802,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -875,7 +879,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -943,7 +947,7 @@
         <v>-1.4306881844467676</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>-0.73586495257485984</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1079,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1153,18 +1157,18 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1179,7 +1183,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1196,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1213,7 +1217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1230,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1253,18 +1257,18 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0.4</v>
@@ -1279,7 +1283,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1313,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1353,18 +1357,18 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -1379,7 +1383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1434,7 @@
         <v>0.45116756067672009</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1453,72 +1457,72 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>30</v>
       </c>
       <c r="B2">
         <v>8.4331101619379697E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>0.33424655929613983</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>1.2133358649639586E-33</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1529,7 +1533,7 @@
         <v>8.0999153244554613E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1544,7 @@
         <v>1.0099089084513382E-4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1555,7 @@
         <v>1.1418387217069471E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -1568,29 +1572,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.64453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1598,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1614,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -1622,71 +1626,71 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7"/>
       <c r="B7" s="4"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13"/>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16"/>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18"/>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19"/>
       <c r="B19"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20"/>
       <c r="B20"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21"/>
       <c r="B21"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22"/>
       <c r="B22"/>
     </row>
@@ -1699,246 +1703,246 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="10">
+        <v>22</v>
+      </c>
+      <c r="B1" s="9">
         <v>0.4</v>
       </c>
-      <c r="C1" s="11">
+      <c r="C1" s="10">
         <v>0.4</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="11">
         <v>0.4</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>0.8</v>
       </c>
-      <c r="F1" s="14">
+      <c r="F1" s="13">
         <v>0.8</v>
       </c>
-      <c r="G1" s="15">
+      <c r="G1" s="14">
         <v>0.8</v>
       </c>
-      <c r="H1" s="16">
+      <c r="H1" s="15">
         <v>1.2</v>
       </c>
-      <c r="I1" s="17">
+      <c r="I1" s="16">
         <v>1.2</v>
       </c>
-      <c r="J1" s="18">
+      <c r="J1" s="17">
         <v>1.2</v>
       </c>
-      <c r="K1" s="19">
+      <c r="K1" s="18">
         <v>1.6</v>
       </c>
-      <c r="L1" s="20">
+      <c r="L1" s="19">
         <v>1.6</v>
       </c>
-      <c r="M1" s="21">
+      <c r="M1" s="20">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="10">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="11">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="16">
+      <c r="H2" s="15">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="17">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="18">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="20">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="10">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="11">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="17">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="21">
+      <c r="M3" s="20">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="9">
         <v>0.26929382132237512</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <v>0.26929382132237512</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>0.26929382132237512</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>0.41593537248224854</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>0.41593537248224854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>0.41593537248224854</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <v>0.49751163358969142</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.49751163358969142</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="17">
         <v>0.49751163358969142</v>
       </c>
-      <c r="K4" s="19">
+      <c r="K4" s="18">
         <v>0.54159993841241572</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>0.54159993841241572</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="20">
         <v>0.54159993841241572</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="10">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>-0.29093615522070321</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>-0.57977180156386388</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="17">
         <v>-0.85583465653557034</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="18">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>-1.1097262320569594</v>
       </c>
-      <c r="M5" s="21">
+      <c r="M5" s="20">
         <v>-1.1097262320569594</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F6" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="I10" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F12" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H14" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="H18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="L20" s="2"/>
     </row>
@@ -1951,266 +1955,266 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="9">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8">
         <v>0.4</v>
       </c>
-      <c r="C1" s="9">
+      <c r="C1" s="8">
         <v>0.4</v>
       </c>
-      <c r="D1" s="9">
+      <c r="D1" s="8">
         <v>0.4</v>
       </c>
-      <c r="E1" s="9">
+      <c r="E1" s="8">
         <v>0.8</v>
       </c>
-      <c r="F1" s="9">
+      <c r="F1" s="8">
         <v>0.8</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="8">
         <v>0.8</v>
       </c>
-      <c r="H1" s="9">
+      <c r="H1" s="8">
         <v>1.2</v>
       </c>
-      <c r="I1" s="9">
+      <c r="I1" s="8">
         <v>1.2</v>
       </c>
-      <c r="J1" s="9">
+      <c r="J1" s="8">
         <v>1.2</v>
       </c>
-      <c r="K1" s="9">
+      <c r="K1" s="8">
         <v>1.6</v>
       </c>
-      <c r="L1" s="9">
+      <c r="L1" s="8">
         <v>1.6</v>
       </c>
-      <c r="M1" s="9">
+      <c r="M1" s="8">
         <v>1.6</v>
       </c>
       <c r="N1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="8">
         <v>-0.37633430629205178</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <v>-0.70666646734338179</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>-0.98723929967009216</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>-1.2174432654761544</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>-1.2174432654761544</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>-0.22771865423983556</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="8">
         <v>-0.40801774302656463</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>-0.5464126532391167</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>-0.64984386018298912</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>-0.64984386018298912</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0</v>
-      </c>
-      <c r="D4" s="9">
-        <v>0</v>
-      </c>
-      <c r="E4" s="9">
-        <v>0</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>0</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>-0.13932150464649004</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="8">
         <v>-0.24985173044541253</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>-0.33614068837409528</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="8">
         <v>-0.40259011361710589</v>
       </c>
-      <c r="M5" s="9">
+      <c r="M5" s="8">
         <v>-0.40259011361710589</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="K7" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="E13" s="2"/>
       <c r="J13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="18" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="6:13" x14ac:dyDescent="0.3">
       <c r="F18" s="2"/>
       <c r="J18" s="2"/>
     </row>
-    <row r="19" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="6:13" x14ac:dyDescent="0.3">
       <c r="H20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="22" spans="6:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="6:13" x14ac:dyDescent="0.3">
       <c r="K22" s="2"/>
       <c r="M22" s="2"/>
     </row>
@@ -2222,36 +2226,36 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.87890625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>10</v>
@@ -2266,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -2283,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -2300,7 +2304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2317,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -2343,37 +2347,38 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="5.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.234375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.87890625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.76171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.05859375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.46875" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="5.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="5.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.64453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.234375" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="5.1171875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>27</v>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>26</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
@@ -2405,71 +2410,71 @@
       <c r="U1"/>
       <c r="V1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>0.10292290449710899</v>
       </c>
-      <c r="C2" s="23">
-        <v>0</v>
-      </c>
-      <c r="D2" s="23">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="C2" s="22">
+        <v>0</v>
+      </c>
+      <c r="D2" s="22">
+        <v>0</v>
+      </c>
+      <c r="E2" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="23">
-        <v>0</v>
-      </c>
-      <c r="C3" s="23">
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="22">
         <v>0.11089185900999053</v>
       </c>
-      <c r="D3" s="23">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D3" s="22">
+        <v>0</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23">
-        <v>0</v>
-      </c>
-      <c r="C4" s="23">
-        <v>0</v>
-      </c>
-      <c r="D4" s="23">
+      <c r="B4" s="22">
+        <v>0</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22">
         <v>0.43412091895663435</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="22">
         <v>0.2812224425209891</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23">
-        <v>0</v>
-      </c>
-      <c r="C5" s="23">
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
-        <v>-0.3242341951091362</v>
-      </c>
-      <c r="E5" s="23">
+      <c r="B5" s="22">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0</v>
+      </c>
+      <c r="D5" s="22">
+        <v>-0.32423419510913598</v>
+      </c>
+      <c r="E5" s="22">
         <v>0.14288149806418943</v>
       </c>
     </row>
@@ -2482,19 +2487,19 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.125" customWidth="1"/>
+    <col min="1" max="1" width="21.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2507,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2510,7 +2515,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2518,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2526,7 +2531,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2534,7 +2539,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2542,7 +2547,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2550,59 +2555,59 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="8">
+        <v>19</v>
+      </c>
+      <c r="B14" s="7">
         <v>0.4</v>
       </c>
       <c r="C14">
@@ -2615,7 +2620,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -2623,85 +2628,74 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="7">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
         <v>0.1</v>
       </c>
-      <c r="D17">
+      <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="E17">
+      <c r="E16">
         <v>0.30000000000000004</v>
       </c>
-      <c r="F17">
+      <c r="F16">
         <v>0.4</v>
       </c>
-      <c r="G17">
+      <c r="G16">
         <v>0.5</v>
       </c>
-      <c r="H17">
+      <c r="H16">
         <v>0.60000000000000009</v>
       </c>
-      <c r="I17">
+      <c r="I16">
         <v>0.70000000000000007</v>
       </c>
-      <c r="J17">
+      <c r="J16">
         <v>0.8</v>
       </c>
-      <c r="K17">
+      <c r="K16">
         <v>0.9</v>
       </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N17">
+      <c r="N16">
         <v>1.2000000000000002</v>
       </c>
-      <c r="O17">
+      <c r="O16">
         <v>1.3</v>
       </c>
-      <c r="P17">
+      <c r="P16">
         <v>1.4000000000000001</v>
       </c>
-      <c r="Q17">
+      <c r="Q16">
         <v>1.5</v>
       </c>
-      <c r="R17">
+      <c r="R16">
         <v>1.6</v>
       </c>
-      <c r="S17">
+      <c r="S16">
         <v>1.7000000000000002</v>
       </c>
-      <c r="T17">
+      <c r="T16">
         <v>1.8</v>
       </c>
-      <c r="U17">
+      <c r="U16">
         <v>1.9000000000000001</v>
       </c>
-      <c r="V17">
+      <c r="V16">
         <v>2</v>
       </c>
     </row>
@@ -2714,24 +2708,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>23</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2739,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2747,7 +2741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2763,10 +2757,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
   </sheetData>
@@ -2776,18 +2770,18 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2853,7 +2847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -2921,7 +2915,7 @@
         <v>-1.4306881844467676</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +2983,7 @@
         <v>-0.73586495257485984</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3057,7 +3051,7 @@
         <v>0.55903330007501351</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_2_output.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -887,64 +887,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1005051306063381</v>
+        <v>-0.10050513060633801</v>
       </c>
       <c r="D2">
-        <v>-0.19834406053932999</v>
+        <v>-0.19834406053933001</v>
       </c>
       <c r="E2">
-        <v>-0.29340906632856817</v>
+        <v>-0.293409066328568</v>
       </c>
       <c r="F2">
-        <v>-0.38560009082549873</v>
+        <v>-0.38560009082549901</v>
       </c>
       <c r="G2">
-        <v>-0.47482352332088795</v>
+        <v>-0.47482352332088801</v>
       </c>
       <c r="H2">
-        <v>-0.56099645692349087</v>
+        <v>-0.56099645692349098</v>
       </c>
       <c r="I2">
-        <v>-0.64404531724243708</v>
+        <v>-0.64404531724243697</v>
       </c>
       <c r="J2">
         <v>-0.72390972287060495</v>
       </c>
       <c r="K2">
-        <v>-0.8005410124814496</v>
+        <v>-0.80054101248145004</v>
       </c>
       <c r="L2">
-        <v>-0.87390554280562938</v>
+        <v>-0.87390554280562904</v>
       </c>
       <c r="M2">
-        <v>-0.94398297751689408</v>
+        <v>-0.94398297751689397</v>
       </c>
       <c r="N2">
-        <v>-1.0107688976342817</v>
+        <v>-1.0107688976342799</v>
       </c>
       <c r="O2">
-        <v>-1.0742727662652722</v>
+        <v>-1.07427276626527</v>
       </c>
       <c r="P2">
-        <v>-1.1345197963585143</v>
+        <v>-1.1345197963585101</v>
       </c>
       <c r="Q2">
-        <v>-1.191548578069616</v>
+        <v>-1.19154857806962</v>
       </c>
       <c r="R2">
-        <v>-1.2454122327175656</v>
+        <v>-1.2454122327175701</v>
       </c>
       <c r="S2">
         <v>-1.2961757658620501</v>
       </c>
       <c r="T2">
-        <v>-1.3439166136090366</v>
+        <v>-1.3439166136090399</v>
       </c>
       <c r="U2">
-        <v>-1.3887218447004539</v>
+        <v>-1.3887218447004499</v>
       </c>
       <c r="V2">
-        <v>-1.4306881844467676</v>
+        <v>-1.43068818444677</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -958,61 +958,61 @@
         <v>-6.2563430940299106E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12194219614928285</v>
+        <v>-0.12194219614928301</v>
       </c>
       <c r="E3">
-        <v>-0.17817484017981328</v>
+        <v>-0.178174840179813</v>
       </c>
       <c r="F3">
-        <v>-0.23131360200614476</v>
+        <v>-0.23131360200614501</v>
       </c>
       <c r="G3">
-        <v>-0.28142203454854564</v>
+        <v>-0.28142203454854597</v>
       </c>
       <c r="H3">
         <v>-0.32857550896388898</v>
       </c>
       <c r="I3">
-        <v>-0.37285857235094605</v>
+        <v>-0.37285857235094599</v>
       </c>
       <c r="J3">
-        <v>-0.4143650341592065</v>
+        <v>-0.414365034159207</v>
       </c>
       <c r="K3">
-        <v>-0.45319532720371059</v>
+        <v>-0.45319532720371097</v>
       </c>
       <c r="L3">
-        <v>-0.48945634077217315</v>
+        <v>-0.48945634077217298</v>
       </c>
       <c r="M3">
-        <v>-0.52325892451048117</v>
+        <v>-0.52325892451048095</v>
       </c>
       <c r="N3">
-        <v>-0.55471761997555291</v>
+        <v>-0.55471761997555302</v>
       </c>
       <c r="O3">
-        <v>-0.58394841960504729</v>
+        <v>-0.58394841960504695</v>
       </c>
       <c r="P3">
-        <v>-0.61106851526976258</v>
+        <v>-0.61106851526976302</v>
       </c>
       <c r="Q3">
-        <v>-0.63619438381889337</v>
+        <v>-0.63619438381889304</v>
       </c>
       <c r="R3">
-        <v>-0.6594416293124864</v>
+        <v>-0.65944162931248596</v>
       </c>
       <c r="S3">
-        <v>-0.68092342388976423</v>
+        <v>-0.68092342388976401</v>
       </c>
       <c r="T3">
-        <v>-0.70075048013940988</v>
+        <v>-0.70075048013940999</v>
       </c>
       <c r="U3">
-        <v>-0.71902983973922219</v>
+        <v>-0.71902983973922197</v>
       </c>
       <c r="V3">
-        <v>-0.73586495257485984</v>
+        <v>-0.73586495257485995</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1091,64 +1091,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-4.7022148455863715E-2</v>
+        <v>-4.7022148455863701E-2</v>
       </c>
       <c r="D5">
-        <v>-9.1625365714134585E-2</v>
+        <v>-9.1625365714134599E-2</v>
       </c>
       <c r="E5">
-        <v>-0.13386811847996391</v>
+        <v>-0.13386811847996399</v>
       </c>
       <c r="F5">
-        <v>-0.17381455186089953</v>
+        <v>-0.1738145518609</v>
       </c>
       <c r="G5">
-        <v>-0.21153316843140429</v>
+        <v>-0.21153316843140399</v>
       </c>
       <c r="H5">
-        <v>-0.24709688497717003</v>
+        <v>-0.24709688497717</v>
       </c>
       <c r="I5">
         <v>-0.28058167724542599</v>
       </c>
       <c r="J5">
-        <v>-0.31206652267513951</v>
+        <v>-0.31206652267514001</v>
       </c>
       <c r="K5">
-        <v>-0.34163212491153161</v>
+        <v>-0.341632124911532</v>
       </c>
       <c r="L5">
-        <v>-0.36936080850914932</v>
+        <v>-0.36936080850914899</v>
       </c>
       <c r="M5">
-        <v>-0.39533536758935461</v>
+        <v>-0.395335367589355</v>
       </c>
       <c r="N5">
-        <v>-0.41963896344293944</v>
+        <v>-0.41963896344293899</v>
       </c>
       <c r="O5">
-        <v>-0.44235412583303618</v>
+        <v>-0.44235412583303602</v>
       </c>
       <c r="P5">
-        <v>-0.4635626875143723</v>
+        <v>-0.46356268751437202</v>
       </c>
       <c r="Q5">
-        <v>-0.48334495061490251</v>
+        <v>-0.48334495061490301</v>
       </c>
       <c r="R5">
-        <v>-0.50177967624183528</v>
+        <v>-0.50177967624183495</v>
       </c>
       <c r="S5">
-        <v>-0.5189434145475611</v>
+        <v>-0.51894341454756099</v>
       </c>
       <c r="T5">
-        <v>-0.5349105546748526</v>
+        <v>-0.53491055467485304</v>
       </c>
       <c r="U5">
-        <v>-0.54975280682635952</v>
+        <v>-0.54975280682635996</v>
       </c>
       <c r="V5">
-        <v>-0.56353929487328847</v>
+        <v>-0.56353929487328802</v>
       </c>
     </row>
   </sheetData>
@@ -1188,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525911E-17</v>
+        <v>6.7986997775525899E-17</v>
       </c>
       <c r="C2">
-        <v>1.3597399555105182E-16</v>
+        <v>1.35973995551052E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762956E-17</v>
+        <v>3.3993498887762999E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.35873603875611021</v>
+        <v>0.35873603875610999</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2218634648175673</v>
+        <v>0.221863464817567</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.71097064891722217</v>
+        <v>0.71097064891722195</v>
       </c>
       <c r="E4">
-        <v>0.45116756067672009</v>
+        <v>0.45116756067671998</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.80309597422505963</v>
+        <v>-0.80309597422505996</v>
       </c>
       <c r="E5">
-        <v>0.68816410688752294</v>
+        <v>0.68816410688752305</v>
       </c>
     </row>
   </sheetData>
@@ -1487,7 +1487,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.33424655929613983</v>
+        <v>0.33424655929614</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639586E-33</v>
+        <v>1.2133358649639599E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,10 +1527,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>4.0499576622277306E-4</v>
+        <v>4.0499576622277301E-4</v>
       </c>
       <c r="C8">
-        <v>8.0999153244554613E-4</v>
+        <v>8.0999153244554602E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1538,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>5.049544542256691E-5</v>
+        <v>5.0495445422566903E-5</v>
       </c>
       <c r="C9">
-        <v>1.0099089084513382E-4</v>
+        <v>1.00990890845134E-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.1418387217069471E-3</v>
+        <v>1.1418387217069499E-3</v>
       </c>
       <c r="C10">
-        <v>1.1418387217069471E-3</v>
+        <v>1.1418387217069499E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1563,7 +1563,7 @@
         <v>8.7606471537615802E-4</v>
       </c>
       <c r="C11">
-        <v>6.042964610462824E-3</v>
+        <v>6.0429646104628197E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1759,40 +1759,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1800,40 +1800,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1841,40 +1841,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="C4" s="10">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="D4" s="11">
-        <v>0.26929382132237512</v>
+        <v>0.269293821322375</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224854</v>
+        <v>0.41593537248224899</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969142</v>
+        <v>0.49751163358969103</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241572</v>
+        <v>0.54159993841241605</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1882,40 +1882,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070321</v>
+        <v>-0.29093615522070299</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386388</v>
+        <v>-0.57977180156386399</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557034</v>
+        <v>-0.85583465653557</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569594</v>
+        <v>-1.1097262320569601</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2011,40 +2011,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.37633430629205178</v>
+        <v>-0.376334306292052</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338179</v>
+        <v>-0.70666646734338201</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009216</v>
+        <v>-0.98723929967009205</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.2174432654761544</v>
+        <v>-1.21744326547615</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2052,40 +2052,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.22771865423983556</v>
+        <v>-0.227718654239836</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656463</v>
+        <v>-0.40801774302656502</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.5464126532391167</v>
+        <v>-0.54641265323911703</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298912</v>
+        <v>-0.64984386018298901</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2134,40 +2134,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649004</v>
+        <v>-0.13932150464649001</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541253</v>
+        <v>-0.24985173044541301</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.33614068837409528</v>
+        <v>-0.336140688374095</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.40259011361710589</v>
+        <v>-0.402590113617106</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2415,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.10292290449710899</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.11089185900999053</v>
+        <v>0.111</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.43412091895663435</v>
+        <v>0.434</v>
       </c>
       <c r="E4" s="22">
-        <v>0.2812224425209891</v>
+        <v>0.28100000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2472,10 +2472,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.32423419510913598</v>
+        <v>-0.32400000000000001</v>
       </c>
       <c r="E5" s="22">
-        <v>0.14288149806418943</v>
+        <v>0.14299999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2645,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.30000000000000004</v>
+        <v>0.3</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2654,10 +2654,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.60000000000000009</v>
+        <v>0.6</v>
       </c>
       <c r="I16">
-        <v>0.70000000000000007</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2672,13 +2672,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2687,13 +2687,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7000000000000002</v>
+        <v>1.7</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2855,64 +2855,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.1005051306063381</v>
+        <v>-0.10050513060633801</v>
       </c>
       <c r="D2">
-        <v>-0.19834406053932999</v>
+        <v>-0.19834406053933001</v>
       </c>
       <c r="E2">
-        <v>-0.29340906632856817</v>
+        <v>-0.293409066328568</v>
       </c>
       <c r="F2">
-        <v>-0.38560009082549873</v>
+        <v>-0.38560009082549901</v>
       </c>
       <c r="G2">
-        <v>-0.47482352332088795</v>
+        <v>-0.47482352332088801</v>
       </c>
       <c r="H2">
-        <v>-0.56099645692349087</v>
+        <v>-0.56099645692349098</v>
       </c>
       <c r="I2">
-        <v>-0.64404531724243708</v>
+        <v>-0.64404531724243697</v>
       </c>
       <c r="J2">
         <v>-0.72390972287060495</v>
       </c>
       <c r="K2">
-        <v>-0.8005410124814496</v>
+        <v>-0.80054101248145004</v>
       </c>
       <c r="L2">
-        <v>-0.87390554280562938</v>
+        <v>-0.87390554280562904</v>
       </c>
       <c r="M2">
-        <v>-0.94398297751689408</v>
+        <v>-0.94398297751689397</v>
       </c>
       <c r="N2">
-        <v>-1.0107688976342817</v>
+        <v>-1.0107688976342799</v>
       </c>
       <c r="O2">
-        <v>-1.0742727662652722</v>
+        <v>-1.07427276626527</v>
       </c>
       <c r="P2">
-        <v>-1.1345197963585143</v>
+        <v>-1.1345197963585101</v>
       </c>
       <c r="Q2">
-        <v>-1.191548578069616</v>
+        <v>-1.19154857806962</v>
       </c>
       <c r="R2">
-        <v>-1.2454122327175656</v>
+        <v>-1.2454122327175701</v>
       </c>
       <c r="S2">
         <v>-1.2961757658620501</v>
       </c>
       <c r="T2">
-        <v>-1.3439166136090366</v>
+        <v>-1.3439166136090399</v>
       </c>
       <c r="U2">
-        <v>-1.3887218447004539</v>
+        <v>-1.3887218447004499</v>
       </c>
       <c r="V2">
-        <v>-1.4306881844467676</v>
+        <v>-1.43068818444677</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2926,61 +2926,61 @@
         <v>-6.2563430940299106E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12194219614928285</v>
+        <v>-0.12194219614928301</v>
       </c>
       <c r="E3">
-        <v>-0.17817484017981328</v>
+        <v>-0.178174840179813</v>
       </c>
       <c r="F3">
-        <v>-0.23131360200614476</v>
+        <v>-0.23131360200614501</v>
       </c>
       <c r="G3">
-        <v>-0.28142203454854564</v>
+        <v>-0.28142203454854597</v>
       </c>
       <c r="H3">
         <v>-0.32857550896388898</v>
       </c>
       <c r="I3">
-        <v>-0.37285857235094605</v>
+        <v>-0.37285857235094599</v>
       </c>
       <c r="J3">
-        <v>-0.4143650341592065</v>
+        <v>-0.414365034159207</v>
       </c>
       <c r="K3">
-        <v>-0.45319532720371059</v>
+        <v>-0.45319532720371097</v>
       </c>
       <c r="L3">
-        <v>-0.48945634077217315</v>
+        <v>-0.48945634077217298</v>
       </c>
       <c r="M3">
-        <v>-0.52325892451048117</v>
+        <v>-0.52325892451048095</v>
       </c>
       <c r="N3">
-        <v>-0.55471761997555291</v>
+        <v>-0.55471761997555302</v>
       </c>
       <c r="O3">
-        <v>-0.58394841960504729</v>
+        <v>-0.58394841960504695</v>
       </c>
       <c r="P3">
-        <v>-0.61106851526976258</v>
+        <v>-0.61106851526976302</v>
       </c>
       <c r="Q3">
-        <v>-0.63619438381889337</v>
+        <v>-0.63619438381889304</v>
       </c>
       <c r="R3">
-        <v>-0.6594416293124864</v>
+        <v>-0.65944162931248596</v>
       </c>
       <c r="S3">
-        <v>-0.68092342388976423</v>
+        <v>-0.68092342388976401</v>
       </c>
       <c r="T3">
-        <v>-0.70075048013940988</v>
+        <v>-0.70075048013940999</v>
       </c>
       <c r="U3">
-        <v>-0.71902983973922219</v>
+        <v>-0.71902983973922197</v>
       </c>
       <c r="V3">
-        <v>-0.73586495257485984</v>
+        <v>-0.73586495257485995</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2991,64 +2991,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.0438084724963157E-2</v>
+        <v>7.0438084724963199E-2</v>
       </c>
       <c r="D4">
-        <v>0.13186262311553476</v>
+        <v>0.13186262311553501</v>
       </c>
       <c r="E4">
-        <v>0.18570767853869008</v>
+        <v>0.18570767853869</v>
       </c>
       <c r="F4">
-        <v>0.23311413930871516</v>
+        <v>0.233114139308715</v>
       </c>
       <c r="G4">
-        <v>0.27500355935747522</v>
+        <v>0.275003559357475</v>
       </c>
       <c r="H4">
         <v>0.31213132402370602</v>
       </c>
       <c r="I4">
-        <v>0.34512335825391161</v>
+        <v>0.34512335825391199</v>
       </c>
       <c r="J4">
-        <v>0.37450430506740495</v>
+        <v>0.37450430506740501</v>
       </c>
       <c r="K4">
-        <v>0.40071736536473512</v>
+        <v>0.40071736536473501</v>
       </c>
       <c r="L4">
-        <v>0.42414044106774151</v>
+        <v>0.42414044106774201</v>
       </c>
       <c r="M4">
-        <v>0.44509756497308473</v>
+        <v>0.445097564973085</v>
       </c>
       <c r="N4">
-        <v>0.46386874397943834</v>
+        <v>0.463868743979438</v>
       </c>
       <c r="O4">
-        <v>0.48069688784412434</v>
+        <v>0.48069688784412401</v>
       </c>
       <c r="P4">
-        <v>0.49579412577985171</v>
+        <v>0.49579412577985199</v>
       </c>
       <c r="Q4">
-        <v>0.50934618530001541</v>
+        <v>0.50934618530001496</v>
       </c>
       <c r="R4">
-        <v>0.52151662189115144</v>
+        <v>0.521516621891151</v>
       </c>
       <c r="S4">
-        <v>0.53244968454706276</v>
+        <v>0.53244968454706298</v>
       </c>
       <c r="T4">
-        <v>0.54227325118193426</v>
+        <v>0.54227325118193404</v>
       </c>
       <c r="U4">
-        <v>0.55110076055137525</v>
+        <v>0.55110076055137502</v>
       </c>
       <c r="V4">
-        <v>0.55903330007501351</v>
+        <v>0.55903330007501395</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3062,61 +3062,61 @@
         <v>-7.58727115673134E-2</v>
       </c>
       <c r="D5">
-        <v>-0.1508782696902195</v>
+        <v>-0.15087826969022</v>
       </c>
       <c r="E5">
-        <v>-0.22492088265681323</v>
+        <v>-0.22492088265681301</v>
       </c>
       <c r="F5">
-        <v>-0.29790200944851192</v>
+        <v>-0.29790200944851197</v>
       </c>
       <c r="G5">
-        <v>-0.3697223060063955</v>
+        <v>-0.369722306006395</v>
       </c>
       <c r="H5">
-        <v>-0.44028333682351961</v>
+        <v>-0.44028333682352</v>
       </c>
       <c r="I5">
-        <v>-0.50948895241978853</v>
+        <v>-0.50948895241978898</v>
       </c>
       <c r="J5">
-        <v>-0.57724663275061328</v>
+        <v>-0.57724663275061305</v>
       </c>
       <c r="K5">
-        <v>-0.64346842774863067</v>
+        <v>-0.643468427748631</v>
       </c>
       <c r="L5">
-        <v>-0.70807204481464692</v>
+        <v>-0.70807204481464703</v>
       </c>
       <c r="M5">
-        <v>-0.7709814489867225</v>
+        <v>-0.77098144898672205</v>
       </c>
       <c r="N5">
-        <v>-0.83212775423831042</v>
+        <v>-0.83212775423830998</v>
       </c>
       <c r="O5">
-        <v>-0.89144953917531711</v>
+        <v>-0.891449539175317</v>
       </c>
       <c r="P5">
-        <v>-0.94889356174831774</v>
+        <v>-0.94889356174831796</v>
       </c>
       <c r="Q5">
-        <v>-1.0044148185100341</v>
+        <v>-1.0044148185100299</v>
       </c>
       <c r="R5">
-        <v>-1.0579770802042376</v>
+        <v>-1.0579770802042401</v>
       </c>
       <c r="S5">
-        <v>-1.109552710000814</v>
+        <v>-1.10955271000081</v>
       </c>
       <c r="T5">
-        <v>-1.1591230119497218</v>
+        <v>-1.15912301194972</v>
       </c>
       <c r="U5">
-        <v>-1.2066778239416687</v>
+        <v>-1.20667782394167</v>
       </c>
       <c r="V5">
-        <v>-1.2522156570337697</v>
+        <v>-1.2522156570337699</v>
       </c>
     </row>
   </sheetData>

--- a/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_2_output.xlsx
+++ b/test_files/perturbation_tests/to_be_reformatted/math_L-curve/4-genes_6-edges_artificial-data_Sigmoidal_estimation_fixb-1_fixP-1_no-graph_test2_2_output.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\GRNmap\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\old_grnmap\GRNmap\GRNmap-7d\test_files\perturbation_tests\to_be_reformatted\math_L-curve\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" firstSheet="9" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="-135" windowWidth="6615" windowHeight="12225" tabRatio="644" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -30,7 +30,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullPrecision="0" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -887,64 +887,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.10050513060633801</v>
+        <v>-0.1005051306063381</v>
       </c>
       <c r="D2">
-        <v>-0.19834406053933001</v>
+        <v>-0.19834406053932999</v>
       </c>
       <c r="E2">
-        <v>-0.293409066328568</v>
+        <v>-0.29340906632856817</v>
       </c>
       <c r="F2">
-        <v>-0.38560009082549901</v>
+        <v>-0.38560009082549873</v>
       </c>
       <c r="G2">
-        <v>-0.47482352332088801</v>
+        <v>-0.47482352332088795</v>
       </c>
       <c r="H2">
-        <v>-0.56099645692349098</v>
+        <v>-0.56099645692349087</v>
       </c>
       <c r="I2">
-        <v>-0.64404531724243697</v>
+        <v>-0.64404531724243708</v>
       </c>
       <c r="J2">
         <v>-0.72390972287060495</v>
       </c>
       <c r="K2">
-        <v>-0.80054101248145004</v>
+        <v>-0.8005410124814496</v>
       </c>
       <c r="L2">
-        <v>-0.87390554280562904</v>
+        <v>-0.87390554280562938</v>
       </c>
       <c r="M2">
-        <v>-0.94398297751689397</v>
+        <v>-0.94398297751689408</v>
       </c>
       <c r="N2">
-        <v>-1.0107688976342799</v>
+        <v>-1.0107688976342817</v>
       </c>
       <c r="O2">
-        <v>-1.07427276626527</v>
+        <v>-1.0742727662652722</v>
       </c>
       <c r="P2">
-        <v>-1.1345197963585101</v>
+        <v>-1.1345197963585143</v>
       </c>
       <c r="Q2">
-        <v>-1.19154857806962</v>
+        <v>-1.191548578069616</v>
       </c>
       <c r="R2">
-        <v>-1.2454122327175701</v>
+        <v>-1.2454122327175656</v>
       </c>
       <c r="S2">
         <v>-1.2961757658620501</v>
       </c>
       <c r="T2">
-        <v>-1.3439166136090399</v>
+        <v>-1.3439166136090366</v>
       </c>
       <c r="U2">
-        <v>-1.3887218447004499</v>
+        <v>-1.3887218447004539</v>
       </c>
       <c r="V2">
-        <v>-1.43068818444677</v>
+        <v>-1.4306881844467676</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -958,61 +958,61 @@
         <v>-6.2563430940299106E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12194219614928301</v>
+        <v>-0.12194219614928285</v>
       </c>
       <c r="E3">
-        <v>-0.178174840179813</v>
+        <v>-0.17817484017981328</v>
       </c>
       <c r="F3">
-        <v>-0.23131360200614501</v>
+        <v>-0.23131360200614476</v>
       </c>
       <c r="G3">
-        <v>-0.28142203454854597</v>
+        <v>-0.28142203454854564</v>
       </c>
       <c r="H3">
         <v>-0.32857550896388898</v>
       </c>
       <c r="I3">
-        <v>-0.37285857235094599</v>
+        <v>-0.37285857235094605</v>
       </c>
       <c r="J3">
-        <v>-0.414365034159207</v>
+        <v>-0.4143650341592065</v>
       </c>
       <c r="K3">
-        <v>-0.45319532720371097</v>
+        <v>-0.45319532720371059</v>
       </c>
       <c r="L3">
-        <v>-0.48945634077217298</v>
+        <v>-0.48945634077217315</v>
       </c>
       <c r="M3">
-        <v>-0.52325892451048095</v>
+        <v>-0.52325892451048117</v>
       </c>
       <c r="N3">
-        <v>-0.55471761997555302</v>
+        <v>-0.55471761997555291</v>
       </c>
       <c r="O3">
-        <v>-0.58394841960504695</v>
+        <v>-0.58394841960504729</v>
       </c>
       <c r="P3">
-        <v>-0.61106851526976302</v>
+        <v>-0.61106851526976258</v>
       </c>
       <c r="Q3">
-        <v>-0.63619438381889304</v>
+        <v>-0.63619438381889337</v>
       </c>
       <c r="R3">
-        <v>-0.65944162931248596</v>
+        <v>-0.6594416293124864</v>
       </c>
       <c r="S3">
-        <v>-0.68092342388976401</v>
+        <v>-0.68092342388976423</v>
       </c>
       <c r="T3">
-        <v>-0.70075048013940999</v>
+        <v>-0.70075048013940988</v>
       </c>
       <c r="U3">
-        <v>-0.71902983973922197</v>
+        <v>-0.71902983973922219</v>
       </c>
       <c r="V3">
-        <v>-0.73586495257485995</v>
+        <v>-0.73586495257485984</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -1091,64 +1091,64 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>-4.7022148455863701E-2</v>
+        <v>-4.7022148455863715E-2</v>
       </c>
       <c r="D5">
-        <v>-9.1625365714134599E-2</v>
+        <v>-9.1625365714134585E-2</v>
       </c>
       <c r="E5">
-        <v>-0.13386811847996399</v>
+        <v>-0.13386811847996391</v>
       </c>
       <c r="F5">
-        <v>-0.1738145518609</v>
+        <v>-0.17381455186089953</v>
       </c>
       <c r="G5">
-        <v>-0.21153316843140399</v>
+        <v>-0.21153316843140429</v>
       </c>
       <c r="H5">
-        <v>-0.24709688497717</v>
+        <v>-0.24709688497717003</v>
       </c>
       <c r="I5">
         <v>-0.28058167724542599</v>
       </c>
       <c r="J5">
-        <v>-0.31206652267514001</v>
+        <v>-0.31206652267513951</v>
       </c>
       <c r="K5">
-        <v>-0.341632124911532</v>
+        <v>-0.34163212491153161</v>
       </c>
       <c r="L5">
-        <v>-0.36936080850914899</v>
+        <v>-0.36936080850914932</v>
       </c>
       <c r="M5">
-        <v>-0.395335367589355</v>
+        <v>-0.39533536758935461</v>
       </c>
       <c r="N5">
-        <v>-0.41963896344293899</v>
+        <v>-0.41963896344293944</v>
       </c>
       <c r="O5">
-        <v>-0.44235412583303602</v>
+        <v>-0.44235412583303618</v>
       </c>
       <c r="P5">
-        <v>-0.46356268751437202</v>
+        <v>-0.4635626875143723</v>
       </c>
       <c r="Q5">
-        <v>-0.48334495061490301</v>
+        <v>-0.48334495061490251</v>
       </c>
       <c r="R5">
-        <v>-0.50177967624183495</v>
+        <v>-0.50177967624183528</v>
       </c>
       <c r="S5">
-        <v>-0.51894341454756099</v>
+        <v>-0.5189434145475611</v>
       </c>
       <c r="T5">
-        <v>-0.53491055467485304</v>
+        <v>-0.5349105546748526</v>
       </c>
       <c r="U5">
-        <v>-0.54975280682635996</v>
+        <v>-0.54975280682635952</v>
       </c>
       <c r="V5">
-        <v>-0.56353929487328802</v>
+        <v>-0.56353929487328847</v>
       </c>
     </row>
   </sheetData>
@@ -1188,10 +1188,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>6.7986997775525899E-17</v>
+        <v>6.7986997775525911E-17</v>
       </c>
       <c r="C2">
-        <v>1.35973995551052E-16</v>
+        <v>1.3597399555105182E-16</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>3.3993498887762999E-17</v>
+        <v>3.3993498887762956E-17</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>0.35873603875610999</v>
+        <v>0.35873603875611021</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.221863464817567</v>
+        <v>0.2218634648175673</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.71097064891722195</v>
+        <v>0.71097064891722217</v>
       </c>
       <c r="E4">
-        <v>0.45116756067671998</v>
+        <v>0.45116756067672009</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1445,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>-0.80309597422505996</v>
+        <v>-0.80309597422505963</v>
       </c>
       <c r="E5">
-        <v>0.68816410688752305</v>
+        <v>0.68816410688752294</v>
       </c>
     </row>
   </sheetData>
@@ -1460,7 +1460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
@@ -1487,7 +1487,7 @@
         <v>30</v>
       </c>
       <c r="B3">
-        <v>0.33424655929614</v>
+        <v>0.33424655929613983</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1495,7 @@
         <v>31</v>
       </c>
       <c r="B4">
-        <v>1.2133358649639599E-33</v>
+        <v>1.2133358649639586E-33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1527,10 +1527,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>4.0499576622277301E-4</v>
+        <v>4.0499576622277306E-4</v>
       </c>
       <c r="C8">
-        <v>8.0999153244554602E-4</v>
+        <v>8.0999153244554613E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1538,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>5.0495445422566903E-5</v>
+        <v>5.049544542256691E-5</v>
       </c>
       <c r="C9">
-        <v>1.00990890845134E-4</v>
+        <v>1.0099089084513382E-4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1549,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>1.1418387217069499E-3</v>
+        <v>1.1418387217069471E-3</v>
       </c>
       <c r="C10">
-        <v>1.1418387217069499E-3</v>
+        <v>1.1418387217069471E-3</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1563,7 +1563,7 @@
         <v>8.7606471537615802E-4</v>
       </c>
       <c r="C11">
-        <v>6.0429646104628197E-3</v>
+        <v>6.042964610462824E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1707,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.64453125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -1759,40 +1759,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="9">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="10">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="11">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="12">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="13">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="14">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="15">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="16">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="17">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="18">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="19">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="20">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1800,40 +1800,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="9">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="10">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="11">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="12">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="13">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="14">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="15">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="16">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="17">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="18">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="19">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="20">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1841,40 +1841,40 @@
         <v>0</v>
       </c>
       <c r="B4" s="9">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="C4" s="10">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="D4" s="11">
-        <v>0.269293821322375</v>
+        <v>0.26929382132237512</v>
       </c>
       <c r="E4" s="12">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="F4" s="13">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="G4" s="14">
-        <v>0.41593537248224899</v>
+        <v>0.41593537248224854</v>
       </c>
       <c r="H4" s="15">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="I4" s="16">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="J4" s="17">
-        <v>0.49751163358969103</v>
+        <v>0.49751163358969142</v>
       </c>
       <c r="K4" s="18">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="L4" s="19">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
       <c r="M4" s="20">
-        <v>0.54159993841241605</v>
+        <v>0.54159993841241572</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -1882,40 +1882,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="9">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="C5" s="10">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="D5" s="11">
-        <v>-0.29093615522070299</v>
+        <v>-0.29093615522070321</v>
       </c>
       <c r="E5" s="12">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="F5" s="13">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="G5" s="14">
-        <v>-0.57977180156386399</v>
+        <v>-0.57977180156386388</v>
       </c>
       <c r="H5" s="15">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="I5" s="16">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="J5" s="17">
-        <v>-0.85583465653557</v>
+        <v>-0.85583465653557034</v>
       </c>
       <c r="K5" s="18">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="L5" s="19">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
       <c r="M5" s="20">
-        <v>-1.1097262320569601</v>
+        <v>-1.1097262320569594</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1958,8 +1958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.76171875" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2011,40 +2011,40 @@
         <v>10</v>
       </c>
       <c r="B2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="C2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="D2" s="8">
-        <v>-0.376334306292052</v>
+        <v>-0.37633430629205178</v>
       </c>
       <c r="E2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="F2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="G2" s="8">
-        <v>-0.70666646734338201</v>
+        <v>-0.70666646734338179</v>
       </c>
       <c r="H2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="I2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="J2" s="8">
-        <v>-0.98723929967009205</v>
+        <v>-0.98723929967009216</v>
       </c>
       <c r="K2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="L2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
       <c r="M2" s="8">
-        <v>-1.21744326547615</v>
+        <v>-1.2174432654761544</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2052,40 +2052,40 @@
         <v>11</v>
       </c>
       <c r="B3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="C3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="D3" s="8">
-        <v>-0.227718654239836</v>
+        <v>-0.22771865423983556</v>
       </c>
       <c r="E3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="F3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="G3" s="8">
-        <v>-0.40801774302656502</v>
+        <v>-0.40801774302656463</v>
       </c>
       <c r="H3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="I3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="J3" s="8">
-        <v>-0.54641265323911703</v>
+        <v>-0.5464126532391167</v>
       </c>
       <c r="K3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="L3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
       <c r="M3" s="8">
-        <v>-0.64984386018298901</v>
+        <v>-0.64984386018298912</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.25" x14ac:dyDescent="0.45">
@@ -2134,40 +2134,40 @@
         <v>1</v>
       </c>
       <c r="B5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="C5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="D5" s="8">
-        <v>-0.13932150464649001</v>
+        <v>-0.13932150464649004</v>
       </c>
       <c r="E5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="F5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="G5" s="8">
-        <v>-0.24985173044541301</v>
+        <v>-0.24985173044541253</v>
       </c>
       <c r="H5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="I5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="J5" s="8">
-        <v>-0.336140688374095</v>
+        <v>-0.33614068837409528</v>
       </c>
       <c r="K5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="L5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
       <c r="M5" s="8">
-        <v>-0.402590113617106</v>
+        <v>-0.40259011361710589</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2415,7 +2415,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="22">
-        <v>0.10299999999999999</v>
+        <v>0.10292290449710899</v>
       </c>
       <c r="C2" s="22">
         <v>0</v>
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="22">
-        <v>0.111</v>
+        <v>0.11089185900999053</v>
       </c>
       <c r="D3" s="22">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="22">
-        <v>0.434</v>
+        <v>0.43412091895663435</v>
       </c>
       <c r="E4" s="22">
-        <v>0.28100000000000003</v>
+        <v>0.2812224425209891</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -2472,10 +2472,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="22">
-        <v>-0.32400000000000001</v>
+        <v>-0.32423419510913598</v>
       </c>
       <c r="E5" s="22">
-        <v>0.14299999999999999</v>
+        <v>0.14288149806418943</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2645,7 @@
         <v>0.2</v>
       </c>
       <c r="E16">
-        <v>0.3</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="F16">
         <v>0.4</v>
@@ -2654,10 +2654,10 @@
         <v>0.5</v>
       </c>
       <c r="H16">
-        <v>0.6</v>
+        <v>0.60000000000000009</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.70000000000000007</v>
       </c>
       <c r="J16">
         <v>0.8</v>
@@ -2672,13 +2672,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="N16">
-        <v>1.2</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="O16">
         <v>1.3</v>
       </c>
       <c r="P16">
-        <v>1.4</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="Q16">
         <v>1.5</v>
@@ -2687,13 +2687,13 @@
         <v>1.6</v>
       </c>
       <c r="S16">
-        <v>1.7</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="T16">
         <v>1.8</v>
       </c>
       <c r="U16">
-        <v>1.9</v>
+        <v>1.9000000000000001</v>
       </c>
       <c r="V16">
         <v>2</v>
@@ -2855,64 +2855,64 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.10050513060633801</v>
+        <v>-0.1005051306063381</v>
       </c>
       <c r="D2">
-        <v>-0.19834406053933001</v>
+        <v>-0.19834406053932999</v>
       </c>
       <c r="E2">
-        <v>-0.293409066328568</v>
+        <v>-0.29340906632856817</v>
       </c>
       <c r="F2">
-        <v>-0.38560009082549901</v>
+        <v>-0.38560009082549873</v>
       </c>
       <c r="G2">
-        <v>-0.47482352332088801</v>
+        <v>-0.47482352332088795</v>
       </c>
       <c r="H2">
-        <v>-0.56099645692349098</v>
+        <v>-0.56099645692349087</v>
       </c>
       <c r="I2">
-        <v>-0.64404531724243697</v>
+        <v>-0.64404531724243708</v>
       </c>
       <c r="J2">
         <v>-0.72390972287060495</v>
       </c>
       <c r="K2">
-        <v>-0.80054101248145004</v>
+        <v>-0.8005410124814496</v>
       </c>
       <c r="L2">
-        <v>-0.87390554280562904</v>
+        <v>-0.87390554280562938</v>
       </c>
       <c r="M2">
-        <v>-0.94398297751689397</v>
+        <v>-0.94398297751689408</v>
       </c>
       <c r="N2">
-        <v>-1.0107688976342799</v>
+        <v>-1.0107688976342817</v>
       </c>
       <c r="O2">
-        <v>-1.07427276626527</v>
+        <v>-1.0742727662652722</v>
       </c>
       <c r="P2">
-        <v>-1.1345197963585101</v>
+        <v>-1.1345197963585143</v>
       </c>
       <c r="Q2">
-        <v>-1.19154857806962</v>
+        <v>-1.191548578069616</v>
       </c>
       <c r="R2">
-        <v>-1.2454122327175701</v>
+        <v>-1.2454122327175656</v>
       </c>
       <c r="S2">
         <v>-1.2961757658620501</v>
       </c>
       <c r="T2">
-        <v>-1.3439166136090399</v>
+        <v>-1.3439166136090366</v>
       </c>
       <c r="U2">
-        <v>-1.3887218447004499</v>
+        <v>-1.3887218447004539</v>
       </c>
       <c r="V2">
-        <v>-1.43068818444677</v>
+        <v>-1.4306881844467676</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
@@ -2926,61 +2926,61 @@
         <v>-6.2563430940299106E-2</v>
       </c>
       <c r="D3">
-        <v>-0.12194219614928301</v>
+        <v>-0.12194219614928285</v>
       </c>
       <c r="E3">
-        <v>-0.178174840179813</v>
+        <v>-0.17817484017981328</v>
       </c>
       <c r="F3">
-        <v>-0.23131360200614501</v>
+        <v>-0.23131360200614476</v>
       </c>
       <c r="G3">
-        <v>-0.28142203454854597</v>
+        <v>-0.28142203454854564</v>
       </c>
       <c r="H3">
         <v>-0.32857550896388898</v>
       </c>
       <c r="I3">
-        <v>-0.37285857235094599</v>
+        <v>-0.37285857235094605</v>
       </c>
       <c r="J3">
-        <v>-0.414365034159207</v>
+        <v>-0.4143650341592065</v>
       </c>
       <c r="K3">
-        <v>-0.45319532720371097</v>
+        <v>-0.45319532720371059</v>
       </c>
       <c r="L3">
-        <v>-0.48945634077217298</v>
+        <v>-0.48945634077217315</v>
       </c>
       <c r="M3">
-        <v>-0.52325892451048095</v>
+        <v>-0.52325892451048117</v>
       </c>
       <c r="N3">
-        <v>-0.55471761997555302</v>
+        <v>-0.55471761997555291</v>
       </c>
       <c r="O3">
-        <v>-0.58394841960504695</v>
+        <v>-0.58394841960504729</v>
       </c>
       <c r="P3">
-        <v>-0.61106851526976302</v>
+        <v>-0.61106851526976258</v>
       </c>
       <c r="Q3">
-        <v>-0.63619438381889304</v>
+        <v>-0.63619438381889337</v>
       </c>
       <c r="R3">
-        <v>-0.65944162931248596</v>
+        <v>-0.6594416293124864</v>
       </c>
       <c r="S3">
-        <v>-0.68092342388976401</v>
+        <v>-0.68092342388976423</v>
       </c>
       <c r="T3">
-        <v>-0.70075048013940999</v>
+        <v>-0.70075048013940988</v>
       </c>
       <c r="U3">
-        <v>-0.71902983973922197</v>
+        <v>-0.71902983973922219</v>
       </c>
       <c r="V3">
-        <v>-0.73586495257485995</v>
+        <v>-0.73586495257485984</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -2991,64 +2991,64 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>7.0438084724963199E-2</v>
+        <v>7.0438084724963157E-2</v>
       </c>
       <c r="D4">
-        <v>0.13186262311553501</v>
+        <v>0.13186262311553476</v>
       </c>
       <c r="E4">
-        <v>0.18570767853869</v>
+        <v>0.18570767853869008</v>
       </c>
       <c r="F4">
-        <v>0.233114139308715</v>
+        <v>0.23311413930871516</v>
       </c>
       <c r="G4">
-        <v>0.275003559357475</v>
+        <v>0.27500355935747522</v>
       </c>
       <c r="H4">
         <v>0.31213132402370602</v>
       </c>
       <c r="I4">
-        <v>0.34512335825391199</v>
+        <v>0.34512335825391161</v>
       </c>
       <c r="J4">
-        <v>0.37450430506740501</v>
+        <v>0.37450430506740495</v>
       </c>
       <c r="K4">
-        <v>0.40071736536473501</v>
+        <v>0.40071736536473512</v>
       </c>
       <c r="L4">
-        <v>0.42414044106774201</v>
+        <v>0.42414044106774151</v>
       </c>
       <c r="M4">
-        <v>0.445097564973085</v>
+        <v>0.44509756497308473</v>
       </c>
       <c r="N4">
-        <v>0.463868743979438</v>
+        <v>0.46386874397943834</v>
       </c>
       <c r="O4">
-        <v>0.48069688784412401</v>
+        <v>0.48069688784412434</v>
       </c>
       <c r="P4">
-        <v>0.49579412577985199</v>
+        <v>0.49579412577985171</v>
       </c>
       <c r="Q4">
-        <v>0.50934618530001496</v>
+        <v>0.50934618530001541</v>
       </c>
       <c r="R4">
-        <v>0.521516621891151</v>
+        <v>0.52151662189115144</v>
       </c>
       <c r="S4">
-        <v>0.53244968454706298</v>
+        <v>0.53244968454706276</v>
       </c>
       <c r="T4">
-        <v>0.54227325118193404</v>
+        <v>0.54227325118193426</v>
       </c>
       <c r="U4">
-        <v>0.55110076055137502</v>
+        <v>0.55110076055137525</v>
       </c>
       <c r="V4">
-        <v>0.55903330007501395</v>
+        <v>0.55903330007501351</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
@@ -3062,61 +3062,61 @@
         <v>-7.58727115673134E-2</v>
       </c>
       <c r="D5">
-        <v>-0.15087826969022</v>
+        <v>-0.1508782696902195</v>
       </c>
       <c r="E5">
-        <v>-0.22492088265681301</v>
+        <v>-0.22492088265681323</v>
       </c>
       <c r="F5">
-        <v>-0.29790200944851197</v>
+        <v>-0.29790200944851192</v>
       </c>
       <c r="G5">
-        <v>-0.369722306006395</v>
+        <v>-0.3697223060063955</v>
       </c>
       <c r="H5">
-        <v>-0.44028333682352</v>
+        <v>-0.44028333682351961</v>
       </c>
       <c r="I5">
-        <v>-0.50948895241978898</v>
+        <v>-0.50948895241978853</v>
       </c>
       <c r="J5">
-        <v>-0.57724663275061305</v>
+        <v>-0.57724663275061328</v>
       </c>
       <c r="K5">
-        <v>-0.643468427748631</v>
+        <v>-0.64346842774863067</v>
       </c>
       <c r="L5">
-        <v>-0.70807204481464703</v>
+        <v>-0.70807204481464692</v>
       </c>
       <c r="M5">
-        <v>-0.77098144898672205</v>
+        <v>-0.7709814489867225</v>
       </c>
       <c r="N5">
-        <v>-0.83212775423830998</v>
+        <v>-0.83212775423831042</v>
       </c>
       <c r="O5">
-        <v>-0.891449539175317</v>
+        <v>-0.89144953917531711</v>
       </c>
       <c r="P5">
-        <v>-0.94889356174831796</v>
+        <v>-0.94889356174831774</v>
       </c>
       <c r="Q5">
-        <v>-1.0044148185100299</v>
+        <v>-1.0044148185100341</v>
       </c>
       <c r="R5">
-        <v>-1.0579770802042401</v>
+        <v>-1.0579770802042376</v>
       </c>
       <c r="S5">
-        <v>-1.10955271000081</v>
+        <v>-1.109552710000814</v>
       </c>
       <c r="T5">
-        <v>-1.15912301194972</v>
+        <v>-1.1591230119497218</v>
       </c>
       <c r="U5">
-        <v>-1.20667782394167</v>
+        <v>-1.2066778239416687</v>
       </c>
       <c r="V5">
-        <v>-1.2522156570337699</v>
+        <v>-1.2522156570337697</v>
       </c>
     </row>
   </sheetData>
